--- a/Java/src/document/교과편성+연계표.xlsx
+++ b/Java/src/document/교과편성+연계표.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E4C29A6-BD49-410F-9084-D69047B16476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1EEF75F4-9C5B-4B67-BBD1-E6879107B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="16065" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="29070" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="교과편성 연계표" sheetId="1" r:id="rId1"/>
     <sheet name="훈련내용" sheetId="4" r:id="rId2"/>
-    <sheet name="알클노트" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:E20"/>
+  <oleSize ref="A1:H19"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2601,6 +2601,9 @@
       <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45729</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3730,7 +3733,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Java/src/document/교과편성+연계표.xlsx
+++ b/Java/src/document/교과편성+연계표.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1EEF75F4-9C5B-4B67-BBD1-E6879107B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1F6795E-574B-4EAE-B187-7D27F8DD9F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="29070" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="29100" windowHeight="16500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="교과편성 연계표" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:H19"/>
+  <oleSize ref="A1:N18"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2522,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4418A556-FEAE-4E4D-A09C-A3C19C6210B6}">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3698,16 +3698,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A144:A155"/>
-    <mergeCell ref="A136:A143"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A51:A61"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A163:A167"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A130:A135"/>
     <mergeCell ref="A118:A129"/>
@@ -3721,6 +3711,16 @@
     <mergeCell ref="A41:A50"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A20:A38"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A144:A155"/>
+    <mergeCell ref="A136:A143"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A51:A61"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3732,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1CE21D-9CDF-4D3D-BC86-74B234C379D4}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
